--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3268172.015786638</v>
+        <v>3376323.108700931</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8057654.690091304</v>
+        <v>8063697.700678562</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>365.5391913689373</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>154.9296139657985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47.35637684203035</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>15.1974780452341</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>307.9627513656416</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247075</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987945</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.0104859966379</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269628</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705026</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838589</v>
       </c>
       <c r="T6" t="n">
         <v>192.0665623188214</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>99.35321644547072</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>200.390236595257</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>173.2496768855306</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247072</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987945</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>138.2963543483357</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269628</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705025</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838589</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>94.69890132640207</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>42.32069823344314</v>
+        <v>101.5575724195738</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634808</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206832</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695547</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784693</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977349</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>159.4039304881645</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695543</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>126.926382450743</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012181</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>34.00490843294352</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.619672595753484</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012186</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>30.85302310518084</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.584653352095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695547</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>24.83266606352761</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.6889225686094</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016448</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>40.36264995190126</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.584653352095</v>
+        <v>32.57570591153311</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495694937</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.44729448253425</v>
+        <v>148.6154730182121</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465689</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>14.76058440587411</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890369</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>135.3120514073068</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>171.4915124652516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187853</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695508</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576158</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784688</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182121</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465689</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892439</v>
       </c>
       <c r="V37" t="n">
-        <v>104.7777418077832</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444232499</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890369</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>80.5697888787481</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>134.1343006978452</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>94.80184639741307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>66.43694060668919</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.498902304191</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="C2" t="n">
-        <v>898.5363853637798</v>
+        <v>1213.561337192729</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>1213.561337192729</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190806</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.593301929726</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y2" t="n">
-        <v>1654.098742368313</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4422,13 +4424,13 @@
         <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>667.7261630934936</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>667.7261630934936</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>667.7261630934936</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>519.8130695111005</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>372.9231220131901</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>204.9366573214687</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1295.533244860336</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>1295.533244860336</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>895.7157139915109</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>667.7261630934936</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>667.7261630934936</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.3110907974335</v>
+        <v>1524.365833927792</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974335</v>
+        <v>1155.40331698738</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>1155.40331698738</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>844.3298307594592</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698517</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345446</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816068</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087289</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923558</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230812</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740834</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764991</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723843</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400148</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926618</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532442</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532442</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>1897.831592188872</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918765</v>
+        <v>1897.831592188872</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.910930861555</v>
+        <v>1524.365833927792</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.910930861555</v>
+        <v>1524.365833927792</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500109</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735131</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049839</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1218.104987164203</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1852.28397094324</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>447.2324164907616</v>
+        <v>666.9516006271325</v>
       </c>
       <c r="C7" t="n">
-        <v>447.2324164907616</v>
+        <v>498.0154176992256</v>
       </c>
       <c r="D7" t="n">
-        <v>447.2324164907616</v>
+        <v>347.8987782868899</v>
       </c>
       <c r="E7" t="n">
-        <v>447.2324164907616</v>
+        <v>199.9856847044968</v>
       </c>
       <c r="F7" t="n">
-        <v>300.3424689928512</v>
+        <v>199.9856847044968</v>
       </c>
       <c r="G7" t="n">
-        <v>300.3424689928512</v>
+        <v>199.9856847044968</v>
       </c>
       <c r="H7" t="n">
-        <v>151.6035708563574</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312162</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020469</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693223</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096571</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245821</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999032</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074494</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074494</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074494</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1413.467639269229</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1211.05325886998</v>
       </c>
       <c r="V7" t="n">
-        <v>896.0145465323091</v>
+        <v>956.3687706640931</v>
       </c>
       <c r="W7" t="n">
-        <v>896.0145465323091</v>
+        <v>666.9516006271325</v>
       </c>
       <c r="X7" t="n">
-        <v>668.0249956342917</v>
+        <v>666.9516006271325</v>
       </c>
       <c r="Y7" t="n">
-        <v>447.2324164907616</v>
+        <v>666.9516006271325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.057359339774</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.094842399363</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>931.8291437926121</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>546.0408911943678</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>539.0953904451643</v>
+        <v>533.325186007826</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816072</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872892</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923558</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230812</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740835</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.88672176499</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723843</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400148</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926618</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.894479532442</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.796531379708</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.657199403896</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057896</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500109</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735131</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>854.842968204984</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164203</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1605.390115761148</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937309</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>483.8248900728859</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>314.888707144979</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>314.888707144979</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>314.888707144979</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>314.888707144979</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>146.9022424532576</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312164</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020469</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693224</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096573</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245821</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999033</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171021</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074495</v>
       </c>
       <c r="R10" t="n">
-        <v>1884.546368054712</v>
+        <v>1533.862713590077</v>
       </c>
       <c r="S10" t="n">
-        <v>1692.860483881538</v>
+        <v>1337.233965749938</v>
       </c>
       <c r="T10" t="n">
-        <v>1471.093868451064</v>
+        <v>1114.255484944673</v>
       </c>
       <c r="U10" t="n">
-        <v>1181.991001576708</v>
+        <v>1114.255484944673</v>
       </c>
       <c r="V10" t="n">
-        <v>927.3065133708208</v>
+        <v>1114.255484944673</v>
       </c>
       <c r="W10" t="n">
-        <v>637.8893433338602</v>
+        <v>1114.255484944673</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>886.2659340466557</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>665.4733549031256</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168617</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517214</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828446</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>868.667363329048</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>699.7311804011409</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998295</v>
+        <v>549.6145409888049</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>549.6145409888049</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908943</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057741</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1050.315828159288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841084</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998673</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.528408326419</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765617</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377099</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253741</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429808</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429808</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.2406881998</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993913</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637405</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595857</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5531,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5543,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
         <v>1140.291933891999</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511918</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232847</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232847</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408913</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429808</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578606</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854704</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817743</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919726</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761953</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797272</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111724</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876663</v>
+        <v>3007.624207651099</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876663</v>
+        <v>2838.688024723192</v>
       </c>
       <c r="D22" t="n">
-        <v>555.815803413396</v>
+        <v>2688.571385310857</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310027</v>
+        <v>2688.571385310857</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330921</v>
+        <v>2541.681437812947</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2541.681437812947</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.741944003834</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235163</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258104</v>
+        <v>4471.231687421536</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602302</v>
+        <v>4182.156460765734</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396415</v>
+        <v>3927.471972559847</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359454</v>
+        <v>3638.054802522886</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614364</v>
+        <v>3410.065251624869</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179062</v>
+        <v>3189.272672481339</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,37 +6053,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>738.788911791383</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417933</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951541</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179062</v>
+        <v>929.7309773356197</v>
       </c>
       <c r="C25" t="n">
-        <v>593.611586389999</v>
+        <v>929.7309773356197</v>
       </c>
       <c r="D25" t="n">
-        <v>443.4949469776632</v>
+        <v>779.614337923284</v>
       </c>
       <c r="E25" t="n">
-        <v>443.4949469776632</v>
+        <v>631.7012443408909</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908942</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G25" t="n">
-        <v>235.528494205774</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359454</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614364</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179062</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111698</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075776</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885225</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398587</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6293,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756258</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468453</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403343</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266884</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821489</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2940.578503903499</v>
+        <v>802.9288273958712</v>
       </c>
       <c r="C28" t="n">
-        <v>2940.578503903499</v>
+        <v>802.9288273958712</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456495</v>
+        <v>652.8121879835356</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874102</v>
+        <v>504.8990944011427</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376192</v>
+        <v>358.0091469032326</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>190.8130476181127</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797174</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018134</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812247</v>
+        <v>1722.776592304618</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775286</v>
+        <v>1433.359422267658</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.019547877269</v>
+        <v>1205.369871369641</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.226968733739</v>
+        <v>984.5772922261107</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075949</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,37 +6527,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468454</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962603</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589153</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589153</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778178</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778178</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>637.902506765482</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830889</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855598</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199796</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993909</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956948</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151588</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080575</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6859,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7004,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263525</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>929.730977335618</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232825</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408896</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429795</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578597</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.903366400058</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1729.097755135311</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237294</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093764</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7365,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>887.5809076559709</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
   </sheetData>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>224.3355197601768</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143853</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,19 +8297,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>249.3877325071639</v>
       </c>
       <c r="O6" t="n">
-        <v>6.454437538929881</v>
+        <v>15.64270034435589</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120155012</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511567045</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120155011</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.750777300912887e-11</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667957</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856573</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>59.1807228639305</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>40.32043864788487</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>252.5180899036476</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.212307586184</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>194.8566322838563</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7828069546849</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462241</v>
+        <v>19.60579027761445</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012186</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819375</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>105.0583980710302</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012186</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>186.0089474405617</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D28" t="n">
-        <v>65.16817853567811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>125.5341284403496</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892439</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>90.39760398173033</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>115.0314858713394</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012147</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>147.3599015160448</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>260.4525338942658</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>205.614685510496</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>45.69767948409211</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>152.1477127454056</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>711131.0082509544</v>
+        <v>711131.0082509546</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>704594.8879997765</v>
+        <v>711131.0082509546</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516411</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.993351641</v>
       </c>
     </row>
     <row r="14">
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778544</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210055</v>
@@ -26353,7 +26355,7 @@
         <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-5.773708766112878e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>507485.4416245483</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-7.295076287603783e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099821</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>2.113592017849441e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>132607.2937289274</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467448</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307096</v>
+        <v>133113.8635467448</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719586</v>
+        <v>7507.368461719445</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719509</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719644</v>
+        <v>7507.36846171961</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719598</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719613</v>
+        <v>7507.368461720051</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461720034</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719712</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719887</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984456</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984456</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239072</v>
@@ -26491,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601865.8266846545</v>
+        <v>-601865.8266846541</v>
       </c>
       <c r="C6" t="n">
-        <v>512885.9568912659</v>
+        <v>512885.9568912672</v>
       </c>
       <c r="D6" t="n">
-        <v>351682.1086430531</v>
+        <v>512885.9568912651</v>
       </c>
       <c r="E6" t="n">
-        <v>292389.5796280228</v>
+        <v>110316.5998108306</v>
       </c>
       <c r="F6" t="n">
-        <v>617802.041435379</v>
+        <v>617802.0414353786</v>
       </c>
       <c r="G6" t="n">
         <v>617802.0414353788</v>
       </c>
       <c r="H6" t="n">
-        <v>617802.0414353792</v>
+        <v>617802.0414353786</v>
       </c>
       <c r="I6" t="n">
-        <v>617802.0414353788</v>
+        <v>617802.0414353806</v>
       </c>
       <c r="J6" t="n">
-        <v>450196.863625396</v>
+        <v>450196.8636253958</v>
       </c>
       <c r="K6" t="n">
-        <v>617802.0414353788</v>
+        <v>617802.0414353784</v>
       </c>
       <c r="L6" t="n">
-        <v>569508.0714271879</v>
+        <v>617802.0414353767</v>
       </c>
       <c r="M6" t="n">
-        <v>532747.0134998668</v>
+        <v>485194.747706451</v>
       </c>
       <c r="N6" t="n">
         <v>617802.0414353787</v>
@@ -26561,7 +26563,7 @@
         <v>617802.0414353787</v>
       </c>
       <c r="P6" t="n">
-        <v>617802.0414353787</v>
+        <v>617802.0414353784</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175375</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175376</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26756,13 +26758,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000369</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000369</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241368</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.084542295792053e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-3.183231456205249e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,13 +26989,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000369</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996117</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>16.39117870332444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>231.3083246902551</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>99.89513231309849</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>271.0296760759665</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>73.96761870662016</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.7206146818312</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.443378758429859</v>
+        <v>104.7965952039007</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195738</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>85.83691752594365</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>237.6720487679228</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>112.7488957801263</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>52.55260782872681</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039007</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.61145443660419</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,22 +28092,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.390353709084657e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-2.3070339331094e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29323,13 +29325,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.224354365258478e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.3070339331094e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="38">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181052</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336172</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979352</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491894</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857134</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076737</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441729993</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342212</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166583</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190635</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147044</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235307</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745082</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389756</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744841</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347156</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380017</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436482</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575838</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178432</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177236</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040579</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762063</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405666</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378618</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168756</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624138</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997895</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000158</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654576</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231069</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335762</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753785</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682316</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227903</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849622</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067954</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154668</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169133</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097482</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759573</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523473</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069548</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024968</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181053</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336172</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979352</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491895</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857135</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076737</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441729993</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342213</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166583</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190636</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147045</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235308</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745083</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389757</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744842</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347157</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380017</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436483</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575838</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178433</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177236</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.065366204058</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762063</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405667</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378619</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168756</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624138</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997896</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000158</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654576</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.9756633523107</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335763</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753785</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682316</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227904</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849623</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067954</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154669</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169133</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097482</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759573</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523474</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069549</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0918752352902497</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31789,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>340.4395077511216</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510266</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31923,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32078,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718153</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>318.3985571819311</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437245</v>
@@ -32099,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>210.3948924365565</v>
+        <v>545.9074025036812</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>139.5228722182909</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601662</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817735</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107817</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33499,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,25 +33736,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>316.0872899694785</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33761,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>502.2268148619681</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,25 +34210,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34790,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>474.0150488837091</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452399</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225031</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407329</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067498</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457266</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376303</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949716</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637939</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402549</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939861</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091708</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560628</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378494</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820395</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000369</v>
       </c>
       <c r="O6" t="n">
-        <v>341.8791195350528</v>
+        <v>351.067382340478</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235316</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308541</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870572</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423487</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831065</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468028</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860239</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295065</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818068</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805377</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225032</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407329</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067498</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457266</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376304</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949716</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637941</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.195818140255</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939864</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091708</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560629</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378494</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820396</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592873</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961222</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>304.6326742392021</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667032</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870574</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423488</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831065</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468029</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.888144986024</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295065</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818068</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.8817554580538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>197.8432633066772</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366964</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974562</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>176.2645232599128</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992801</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367784</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>68.26085851453816</v>
+        <v>403.7733685816628</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295319</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295319</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683968</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>8.181160134957585</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295319</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>200.794978680292</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295319</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096345</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191308</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010444</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899068</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060448</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066245</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998981</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367929</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663373</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>476.2000925419567</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>173.4910455250341</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295356</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998986</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3372185.95145078</v>
+        <v>3373946.481753565</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.99112361440214</v>
       </c>
       <c r="E2" t="n">
-        <v>42.68052496925059</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>76.83081349792759</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>92.58581767699533</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>182.6638687075641</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>72.16717921355946</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>17.42775815369509</v>
       </c>
       <c r="H7" t="n">
-        <v>7.03580008089209</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>182.9377227717316</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.6997841156795</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>23.9456372620864</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784674</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>155.1980648094029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>125.2193560244681</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>15.9345014072213</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493273</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.481876182944</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.481876182944</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.481876182944</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
         <v>1248.370234799863</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182944</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182944</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>910.6959970014096</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="C4" t="n">
-        <v>741.7598140735028</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D4" t="n">
-        <v>591.643174661167</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>443.7300810787739</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>296.8401335808635</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8536688891421</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4530,10 +4530,10 @@
         <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.344461831649</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.344461831649</v>
+        <v>770.8338829770711</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.021456295685</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C5" t="n">
-        <v>926.0589393552737</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847234</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586154</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.530414586154</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>609.1284824998269</v>
+        <v>682.7064461033928</v>
       </c>
       <c r="C7" t="n">
-        <v>609.1284824998269</v>
+        <v>513.7702631754859</v>
       </c>
       <c r="D7" t="n">
-        <v>459.0118430874911</v>
+        <v>363.6536237631501</v>
       </c>
       <c r="E7" t="n">
-        <v>311.098749505098</v>
+        <v>215.740530180757</v>
       </c>
       <c r="F7" t="n">
-        <v>164.2088020071876</v>
+        <v>68.85058268284664</v>
       </c>
       <c r="G7" t="n">
-        <v>164.2088020071876</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541374</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>829.921061643357</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>609.1284824998269</v>
+        <v>864.3549109336325</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2377.55374984285</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2377.55374984285</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2377.55374984285</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2377.55374984285</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.55374984285</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>2377.55374984285</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.8280128167644</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8918298888575</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765217</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1612.258607688551</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1612.258607688551</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1612.258607688551</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1612.258607688551</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1612.258607688551</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1612.258607688551</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>1384.269056790534</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>1163.476477647004</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,13 +5056,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398592</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
         <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
         <v>538.7363435406111</v>
@@ -5199,13 +5199,13 @@
         <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6475,25 +6475,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,31 +6949,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,13 +7162,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>135.7933860496006</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>35.9162744517252</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417438</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>54.95314511566522</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.04875628922497</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>161.3036423121229</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>130.4994612393479</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>25.74504007796097</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210056</v>
@@ -26337,25 +26337,25 @@
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210049</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.939721005</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26368,28 +26368,28 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,19 +26420,19 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719749</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719681</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26450,7 +26450,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719621</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-601865.826684654</v>
       </c>
       <c r="C6" t="n">
-        <v>512885.9568912655</v>
+        <v>512885.9568912651</v>
       </c>
       <c r="D6" t="n">
-        <v>512885.9568912656</v>
+        <v>512885.9568912659</v>
       </c>
       <c r="E6" t="n">
-        <v>109969.2205564759</v>
+        <v>110281.8618853976</v>
       </c>
       <c r="F6" t="n">
-        <v>617454.6621810214</v>
+        <v>617767.303509943</v>
       </c>
       <c r="G6" t="n">
-        <v>617454.6621810215</v>
+        <v>617767.3035099425</v>
       </c>
       <c r="H6" t="n">
-        <v>617454.6621810219</v>
+        <v>617767.303509943</v>
       </c>
       <c r="I6" t="n">
-        <v>617454.6621810215</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="J6" t="n">
-        <v>449849.4843710393</v>
+        <v>450162.1256999603</v>
       </c>
       <c r="K6" t="n">
-        <v>617454.6621810212</v>
+        <v>617767.303509943</v>
       </c>
       <c r="L6" t="n">
-        <v>617454.6621810215</v>
+        <v>617767.3035099431</v>
       </c>
       <c r="M6" t="n">
-        <v>484847.3684520953</v>
+        <v>485160.0097810159</v>
       </c>
       <c r="N6" t="n">
-        <v>617454.6621810215</v>
+        <v>617767.3035099425</v>
       </c>
       <c r="O6" t="n">
-        <v>617454.6621810214</v>
+        <v>617767.3035099427</v>
       </c>
       <c r="P6" t="n">
-        <v>617454.6621810212</v>
+        <v>617767.303509943</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,22 +26962,22 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>532.123455999609</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>532.1234559996092</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000385</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>344.6919180062808</v>
       </c>
       <c r="E2" t="n">
-        <v>339.2498451030112</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>70.42069565720128</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>125.9988356750995</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200.0699729559164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>309.7631908587023</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>148.8788418911091</v>
       </c>
       <c r="H7" t="n">
-        <v>140.2157090742367</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>23.72046220850211</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627896</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>80.85095794181412</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.61193515748722</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28089,19 +28089,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>6.436047097567693e-14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.478997154632013e-12</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28152,10 +28152,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.672078567559044e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28380,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28566,10 +28566,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-7.008101237811299e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>484.1423712692491</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>402.8476067337656</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,7 +34795,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652761</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>352.6335057535154</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>350.1679638549188</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
